--- a/DDAf_2023_Tableau_annexe_Tab29.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A337D0FD-DD26-4976-BFE3-326F5C717A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B68AD4-229B-442B-BAD8-90284823E7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32220" yWindow="1125" windowWidth="17280" windowHeight="15075" xr2:uid="{D7FCD39F-5960-4BA1-8622-C6300D12A5A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{05152B85-2E8C-40AD-BD0C-D3B5588BC4A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab29" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab29'!$A$1:$E$103</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="182">
+  <si>
+    <t>Tableau 29 : Richesse nationale</t>
+  </si>
   <si>
     <t>ISO3 Code</t>
   </si>
@@ -44,6 +47,66 @@
     <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
+    <t>Richesse nationale, richesse totale (en milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, capital produit (en milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, capital naturel (milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, capital humain (milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, capital naturel - renouvelable (milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, forêts - bois (milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, forêts - services écosystémiques (milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, mangroves (milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, pêche (milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, aires protégées (milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, terres agricoles (milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, terres cultivées (en milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, pâturages (milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, capital naturel - non renouvelable (milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, énergie fossile (milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, pétrole (milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, gaz naturel (milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, charbon (milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, métaux et minéraux (en milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
+    <t>Richesse nationale, avoirs extérieurs nets (en milliards de dollars internationaux constants de 2018), 2018</t>
+  </si>
+  <si>
     <t>AGO</t>
   </si>
   <si>
@@ -233,7 +296,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud</t>
+    <t>Soudan du Sud*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -311,7 +374,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -365,7 +428,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -1261,7 +1324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5841A1AB-14E8-4E78-91D9-66090CB8A40E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70378794-50A9-48B7-8BD9-81290C46CAA4}">
   <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1276,8 +1339,8 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="e">
-        <v>#N/A</v>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1299,49 +1362,83 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D2" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E2" s="7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D3" s="11">
         <v>572.76400000000001</v>
@@ -1350,7 +1447,7 @@
         <v>356.03300000000002</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G3" s="11">
         <v>150.22</v>
@@ -1403,10 +1500,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C4" s="13">
         <v>181.68700000000001</v>
@@ -1471,10 +1568,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C5" s="16">
         <v>53.974685457</v>
@@ -1525,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T5" s="17">
         <v>0.1002846907</v>
@@ -1539,10 +1636,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C6" s="16">
         <v>35.230211783999998</v>
@@ -1593,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T6" s="17">
         <v>0</v>
@@ -1607,10 +1704,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C7" s="16">
         <v>142.89099999999999</v>
@@ -1661,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T7" s="17">
         <v>2.0799535040000001E-2</v>
@@ -1675,10 +1772,10 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C8" s="16">
         <v>191.87299999999999</v>
@@ -1743,10 +1840,10 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C9" s="16">
         <v>161.88</v>
@@ -1811,10 +1908,10 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C10" s="16">
         <v>3719.02</v>
@@ -1879,10 +1976,10 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C11" s="13">
         <v>488.51600000000002</v>
@@ -1947,10 +2044,10 @@
     </row>
     <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C12" s="16">
         <v>336.70100000000002</v>
@@ -2015,10 +2112,10 @@
     </row>
     <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C13" s="20">
         <v>5311.7728972409996</v>
@@ -2083,10 +2180,10 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C14" s="16">
         <v>51.339948708999998</v>
@@ -2137,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T14" s="17">
         <v>0</v>
@@ -2151,10 +2248,10 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C15" s="16">
         <v>596.52599999999995</v>
@@ -2219,10 +2316,10 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C16" s="16">
         <v>41.801416142000001</v>
@@ -2273,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T16" s="17">
         <v>0</v>
@@ -2287,10 +2384,10 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C17" s="23">
         <v>166.31800000000001</v>
@@ -2341,7 +2438,7 @@
         <v>26.567674544999999</v>
       </c>
       <c r="S17" s="24" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T17" s="24">
         <v>0</v>
@@ -2355,10 +2452,10 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C18" s="23">
         <v>231.40899999999999</v>
@@ -2423,10 +2520,10 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C19" s="13">
         <v>758.04300000000001</v>
@@ -2491,13 +2588,13 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D20" s="24">
         <v>54.287253090999997</v>
@@ -2506,7 +2603,7 @@
         <v>51.908101266000003</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G20" s="24">
         <v>8.5090833880000005</v>
@@ -2559,10 +2656,10 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C21" s="23">
         <v>145.31200000000001</v>
@@ -2627,10 +2724,10 @@
     </row>
     <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C22" s="16">
         <v>6.4461826860000002</v>
@@ -2681,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T22" s="17">
         <v>0</v>
@@ -2695,10 +2792,10 @@
     </row>
     <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C23" s="20">
         <v>1997.195547537</v>
@@ -2763,10 +2860,10 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C24" s="16">
         <v>15.56281553</v>
@@ -2817,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T24" s="17">
         <v>0</v>
@@ -2831,10 +2928,10 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C25" s="16">
         <v>18.155067595999999</v>
@@ -2885,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T25" s="17">
         <v>0</v>
@@ -2899,22 +2996,22 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E26" s="17">
         <v>16.183840931999999</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G26" s="17">
         <v>13.664827888</v>
@@ -2967,10 +3064,10 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C27" s="16">
         <v>1178.49</v>
@@ -3035,10 +3132,10 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C28" s="16">
         <v>1133.47</v>
@@ -3103,10 +3200,10 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C29" s="16">
         <v>219.95099999999999</v>
@@ -3157,7 +3254,7 @@
         <v>0.25064578920000002</v>
       </c>
       <c r="S29" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T29" s="17">
         <v>0</v>
@@ -3171,10 +3268,10 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C30" s="16">
         <v>125.402</v>
@@ -3239,10 +3336,10 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C31" s="16">
         <v>139.18799999999999</v>
@@ -3293,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T31" s="17">
         <v>0</v>
@@ -3307,13 +3404,13 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D32" s="17">
         <v>9.3065830910000003</v>
@@ -3322,7 +3419,7 @@
         <v>0.87299250750000001</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G32" s="17">
         <v>0.87299250750000001</v>
@@ -3361,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T32" s="17">
         <v>0</v>
@@ -3375,28 +3472,28 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G33" s="17">
         <v>17.791810174999998</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I33" s="17">
         <v>17.731339461000001</v>
@@ -3426,104 +3523,104 @@
         <v>0</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="S33" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="U33" s="16">
         <v>0</v>
       </c>
       <c r="V33" s="16" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="14">
+        <v>85</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="24">
         <v>52.388834316000001</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="23">
         <v>7.0981607640000002</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="24">
         <v>16.896735443000001</v>
       </c>
-      <c r="J34" s="14">
-        <v>0</v>
-      </c>
-      <c r="K34" s="14">
-        <v>0</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="M34" s="14">
+      <c r="J34" s="24">
+        <v>0</v>
+      </c>
+      <c r="K34" s="24">
+        <v>0</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="24">
         <v>28.393938108</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N34" s="24">
         <v>5.1470985300000001</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O34" s="24">
         <v>23.246839577999999</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="24">
         <v>44.063723971000002</v>
       </c>
-      <c r="Q34" s="14">
+      <c r="Q34" s="24">
         <v>44.045511212000001</v>
       </c>
-      <c r="R34" s="14">
+      <c r="R34" s="24">
         <v>44.045511212000001</v>
       </c>
-      <c r="S34" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="T34" s="14">
-        <v>0</v>
-      </c>
-      <c r="U34" s="13">
+      <c r="S34" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="T34" s="24">
+        <v>0</v>
+      </c>
+      <c r="U34" s="23">
         <v>1.8212758629999999E-2</v>
       </c>
-      <c r="V34" s="13">
+      <c r="V34" s="23">
         <v>-1.74702</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D35" s="17">
         <v>154.43299999999999</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F35" s="17">
         <v>163.887</v>
@@ -3544,7 +3641,7 @@
         <v>3.8360438170000001E-3</v>
       </c>
       <c r="L35" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M35" s="17">
         <v>35.351970512000001</v>
@@ -3565,7 +3662,7 @@
         <v>18.281391371000002</v>
       </c>
       <c r="S35" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T35" s="17">
         <v>0</v>
@@ -3579,10 +3676,10 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C36" s="16">
         <v>866.05200000000002</v>
@@ -3647,10 +3744,10 @@
     </row>
     <row r="37" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C37" s="16">
         <v>444.608</v>
@@ -3701,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T37" s="17">
         <v>0</v>
@@ -3715,10 +3812,10 @@
     </row>
     <row r="38" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="18" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C38" s="20">
         <v>4140.8788831259999</v>
@@ -3783,13 +3880,13 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D39" s="24">
         <v>773.62099999999998</v>
@@ -3798,7 +3895,7 @@
         <v>663.16200000000003</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G39" s="24">
         <v>177.733</v>
@@ -3851,10 +3948,10 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C40" s="16">
         <v>1798.26</v>
@@ -3919,13 +4016,13 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D41" s="24">
         <v>152.453</v>
@@ -3934,7 +4031,7 @@
         <v>386.77199999999999</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G41" s="24">
         <v>14.462540398</v>
@@ -3987,10 +4084,10 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C42" s="23">
         <v>81.464278336000007</v>
@@ -4041,7 +4138,7 @@
         <v>0.7729158505</v>
       </c>
       <c r="S42" s="24" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T42" s="24">
         <v>0</v>
@@ -4055,10 +4152,10 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C43" s="16">
         <v>1107.2</v>
@@ -4123,10 +4220,10 @@
     </row>
     <row r="44" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C44" s="16">
         <v>333.75200000000001</v>
@@ -4191,10 +4288,10 @@
     </row>
     <row r="45" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="18" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C45" s="20">
         <v>3320.676278336</v>
@@ -4259,10 +4356,10 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C46" s="16">
         <v>236.56399999999999</v>
@@ -4327,10 +4424,10 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C47" s="16">
         <v>167.62299999999999</v>
@@ -4381,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T47" s="17">
         <v>0</v>
@@ -4395,13 +4492,13 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D48" s="24">
         <v>10.332977383999999</v>
@@ -4410,7 +4507,7 @@
         <v>1.625730256</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G48" s="24">
         <v>1.625730256</v>
@@ -4449,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="24" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T48" s="24">
         <v>0</v>
@@ -4463,10 +4560,10 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C49" s="16">
         <v>484.42899999999997</v>
@@ -4531,10 +4628,10 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C50" s="16">
         <v>17.905734263999999</v>
@@ -4585,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="S50" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T50" s="17">
         <v>0</v>
@@ -4599,10 +4696,10 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="C51" s="13">
         <v>948.39800000000002</v>
@@ -4667,10 +4764,10 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C52" s="16">
         <v>100.02</v>
@@ -4721,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="S52" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T52" s="17">
         <v>0</v>
@@ -4735,13 +4832,13 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D53" s="17">
         <v>3.1486604429999998</v>
@@ -4750,7 +4847,7 @@
         <v>11.604173299999999</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G53" s="17">
         <v>11.604173299999999</v>
@@ -4789,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T53" s="17">
         <v>0</v>
@@ -4803,10 +4900,10 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C54" s="16">
         <v>57.300896401999999</v>
@@ -4857,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="S54" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T54" s="17">
         <v>0</v>
@@ -4871,10 +4968,10 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C55" s="16">
         <v>191.93700000000001</v>
@@ -4925,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="S55" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T55" s="17">
         <v>0</v>
@@ -4939,10 +5036,10 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C56" s="16">
         <v>168.48599999999999</v>
@@ -5007,78 +5104,78 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="23">
+        <v>129</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="16">
         <v>5606.16</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="17">
         <v>1129.06</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="17">
         <v>842.58199999999999</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="17">
         <v>3717.05</v>
       </c>
-      <c r="G57" s="24">
+      <c r="G57" s="17">
         <v>260.14299999999997</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="16">
         <v>34.667592915</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="17">
         <v>15.15534308</v>
       </c>
-      <c r="J57" s="24">
+      <c r="J57" s="17">
         <v>1.445986129</v>
       </c>
-      <c r="K57" s="24">
+      <c r="K57" s="17">
         <v>2.3054343519999998</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="17">
         <v>11.910037571</v>
       </c>
-      <c r="M57" s="24">
+      <c r="M57" s="17">
         <v>194.65899999999999</v>
       </c>
-      <c r="N57" s="24">
+      <c r="N57" s="17">
         <v>166.00899999999999</v>
       </c>
-      <c r="O57" s="24">
+      <c r="O57" s="17">
         <v>28.650584475999999</v>
       </c>
-      <c r="P57" s="24">
+      <c r="P57" s="17">
         <v>582.43799999999999</v>
       </c>
-      <c r="Q57" s="24">
+      <c r="Q57" s="17">
         <v>581.77800000000002</v>
       </c>
-      <c r="R57" s="24">
+      <c r="R57" s="17">
         <v>487.286</v>
       </c>
-      <c r="S57" s="24">
+      <c r="S57" s="17">
         <v>94.463272429</v>
       </c>
-      <c r="T57" s="24">
+      <c r="T57" s="17">
         <v>2.8586964029999998E-2</v>
       </c>
-      <c r="U57" s="23">
+      <c r="U57" s="16">
         <v>0.66051445330000003</v>
       </c>
-      <c r="V57" s="23">
+      <c r="V57" s="16">
         <v>-82.532179999999997</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C58" s="16">
         <v>241.25</v>
@@ -5143,10 +5240,10 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C59" s="16">
         <v>70.158307723999997</v>
@@ -5197,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="17" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="T59" s="17">
         <v>0</v>
@@ -5211,10 +5308,10 @@
     </row>
     <row r="60" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C60" s="13">
         <v>107.384</v>
@@ -5280,7 +5377,7 @@
     <row r="61" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="18"/>
       <c r="B61" s="19" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C61" s="20">
         <v>8397.6159383899994</v>
@@ -5346,7 +5443,7 @@
     <row r="62" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="26"/>
       <c r="B62" s="27" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C62" s="28">
         <v>23168.139544630001</v>
@@ -5412,7 +5509,7 @@
     <row r="63" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="26"/>
       <c r="B63" s="30" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="C63" s="31">
         <v>1129233.6982968301</v>
@@ -5478,7 +5575,7 @@
     <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" s="33"/>
       <c r="B64" s="34" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C64" s="28">
         <v>66916.089922173007</v>
@@ -5544,7 +5641,7 @@
     <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" s="33"/>
       <c r="B65" s="27" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C65" s="35">
         <v>326755.826608059</v>
@@ -5610,7 +5707,7 @@
     <row r="66" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="33"/>
       <c r="B66" s="37" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C66" s="38">
         <v>1152401.83784146</v>
@@ -5676,7 +5773,7 @@
     <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" s="33"/>
       <c r="B67" s="40" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C67" s="41">
         <v>7238.3045172920001</v>
@@ -5742,7 +5839,7 @@
     <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" s="33"/>
       <c r="B68" s="27" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C68" s="35">
         <v>11902.828619592001</v>
@@ -5808,73 +5905,73 @@
     <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" s="33"/>
       <c r="B69" s="27" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C69" s="35">
-        <v>2634.6579487089998</v>
+        <v>3392.7009487089999</v>
       </c>
       <c r="D69" s="36">
-        <v>473.00407790999998</v>
+        <v>569.88948862400002</v>
       </c>
       <c r="E69" s="36">
-        <v>472.06364112300002</v>
+        <v>788.13964112300005</v>
       </c>
       <c r="F69" s="36">
-        <v>1764.546787735</v>
+        <v>2129.554787735</v>
       </c>
       <c r="G69" s="36">
-        <v>516.89438347700002</v>
+        <v>799.82638347700004</v>
       </c>
       <c r="H69" s="35">
-        <v>100.9781198164</v>
+        <v>260.10411981639999</v>
       </c>
       <c r="I69" s="36">
-        <v>52.109745636299998</v>
+        <v>103.2031814993</v>
       </c>
       <c r="J69" s="36">
-        <v>0.77031466800000004</v>
+        <v>0.77031493755499003</v>
       </c>
       <c r="K69" s="36">
-        <v>0.60760877280000003</v>
+        <v>0.63729354401000005</v>
       </c>
       <c r="L69" s="36">
-        <v>62.993850967999997</v>
+        <v>71.295681103999996</v>
       </c>
       <c r="M69" s="36">
-        <v>299.434105805</v>
+        <v>363.81487029099998</v>
       </c>
       <c r="N69" s="36">
-        <v>164.806455091</v>
+        <v>224.36813840299999</v>
       </c>
       <c r="O69" s="36">
-        <v>134.6275119627</v>
+        <v>139.44659313669999</v>
       </c>
       <c r="P69" s="36">
-        <v>51.622033063990003</v>
+        <v>84.766796768990005</v>
       </c>
       <c r="Q69" s="36">
-        <v>44.749093327840001</v>
+        <v>49.736158480839997</v>
       </c>
       <c r="R69" s="36">
-        <v>44.06255511594</v>
+        <v>49.046668118939998</v>
       </c>
       <c r="S69" s="36">
-        <v>0.45941731340000003</v>
+        <v>0.46236946372100002</v>
       </c>
       <c r="T69" s="36">
         <v>0.2271208985</v>
       </c>
       <c r="U69" s="35">
-        <v>6.8729397356800002</v>
+        <v>35.030638287679999</v>
       </c>
       <c r="V69" s="35">
-        <v>-76.70702</v>
+        <v>-96.632890000000003</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" s="33"/>
       <c r="B70" s="27" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C70" s="35">
         <v>2136.3835475370001</v>
@@ -5940,7 +6037,7 @@
     <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" s="33"/>
       <c r="B71" s="27" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C71" s="35">
         <v>8397.6159383899994</v>
@@ -6006,7 +6103,7 @@
     <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" s="33"/>
       <c r="B72" s="27" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C72" s="35">
         <v>2774.723067596</v>
@@ -6072,7 +6169,7 @@
     <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" s="33"/>
       <c r="B73" s="27" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C73" s="35">
         <v>7296.783712771</v>
@@ -6138,7 +6235,7 @@
     <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" s="33"/>
       <c r="B74" s="27" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C74" s="35">
         <v>1522.416278336</v>
@@ -6204,7 +6301,7 @@
     <row r="75" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="33"/>
       <c r="B75" s="37" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C75" s="38">
         <v>198.319182686</v>
@@ -6270,7 +6367,7 @@
     <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" s="33"/>
       <c r="B76" s="40" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C76" s="41">
         <v>35750.474999999999</v>
@@ -6336,73 +6433,73 @@
     <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" s="33"/>
       <c r="B77" s="27" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C77" s="35">
-        <v>50491.239260634</v>
+        <v>43943.839260633998</v>
       </c>
       <c r="D77" s="36">
-        <v>12790.650922057999</v>
+        <v>12020.135922058</v>
       </c>
       <c r="E77" s="36">
-        <v>6049.0077396699999</v>
+        <v>5344.8987396700004</v>
       </c>
       <c r="F77" s="36">
-        <v>32428.455870533999</v>
+        <v>27458.935870533998</v>
       </c>
       <c r="G77" s="36">
-        <v>4254.7580502230003</v>
+        <v>4053.3830502229998</v>
       </c>
       <c r="H77" s="35">
-        <v>407.38633281300002</v>
+        <v>402.18200124399999</v>
       </c>
       <c r="I77" s="36">
-        <v>990.775007996</v>
+        <v>896.06909900799997</v>
       </c>
       <c r="J77" s="36">
-        <v>38.145977494429999</v>
+        <v>35.046780305429998</v>
       </c>
       <c r="K77" s="36">
-        <v>13.6755471562</v>
+        <v>13.3586643293</v>
       </c>
       <c r="L77" s="36">
-        <v>838.94001626570002</v>
+        <v>779.90219122869996</v>
       </c>
       <c r="M77" s="36">
-        <v>1965.832960364</v>
+        <v>1926.8221585230001</v>
       </c>
       <c r="N77" s="36">
-        <v>1074.1277043327</v>
+        <v>1057.7026782367</v>
       </c>
       <c r="O77" s="36">
-        <v>891.70795867820004</v>
+        <v>869.12218293319995</v>
       </c>
       <c r="P77" s="36">
-        <v>1794.2541162202999</v>
+        <v>1291.5201162203</v>
       </c>
       <c r="Q77" s="36">
-        <v>1069.6603488860001</v>
+        <v>572.28934888599997</v>
       </c>
       <c r="R77" s="36">
-        <v>959.77566574800005</v>
+        <v>483.39166574799998</v>
       </c>
       <c r="S77" s="36">
-        <v>61.266166851500003</v>
+        <v>40.759258371500003</v>
       </c>
       <c r="T77" s="36">
-        <v>48.618426153190001</v>
+        <v>48.138781257790001</v>
       </c>
       <c r="U77" s="35">
-        <v>724.59395710700005</v>
+        <v>719.23060390499995</v>
       </c>
       <c r="V77" s="35">
-        <v>-776.94677999999999</v>
+        <v>-880.19777999999997</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" s="33"/>
       <c r="B78" s="27" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C78" s="35">
         <v>195888.06400000001</v>
@@ -6468,7 +6565,7 @@
     <row r="79" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="33"/>
       <c r="B79" s="37" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C79" s="38">
         <v>692356.772</v>
@@ -6534,73 +6631,73 @@
     <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" s="33"/>
       <c r="B80" s="40" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C80" s="41">
-        <v>6230.6632783360001</v>
+        <v>624.50327833599999</v>
       </c>
       <c r="D80" s="42">
-        <v>2888.4798175639999</v>
+        <v>1759.4198175639999</v>
       </c>
       <c r="E80" s="42">
-        <v>2548.5393988119999</v>
+        <v>1705.9573988120001</v>
       </c>
       <c r="F80" s="42">
-        <v>3953.7525702419998</v>
+        <v>236.70257024200001</v>
       </c>
       <c r="G80" s="42">
-        <v>740.81106125999997</v>
+        <v>533.05689557599999</v>
       </c>
       <c r="H80" s="41">
-        <v>82.804902006399999</v>
+        <v>55.235469855399998</v>
       </c>
       <c r="I80" s="42">
-        <v>152.7425181003</v>
+        <v>154.48391046329999</v>
       </c>
       <c r="J80" s="42">
-        <v>2.6197606329599998</v>
+        <v>1.17377450396</v>
       </c>
       <c r="K80" s="42">
-        <v>7.1260130053699999</v>
+        <v>4.8205786533700001</v>
       </c>
       <c r="L80" s="42">
-        <v>53.125734194560003</v>
+        <v>41.21569662356</v>
       </c>
       <c r="M80" s="42">
-        <v>442.39219975690003</v>
+        <v>276.12713786490002</v>
       </c>
       <c r="N80" s="42">
-        <v>318.55686290040001</v>
+        <v>157.69496143040001</v>
       </c>
       <c r="O80" s="42">
-        <v>123.83637636979</v>
+        <v>118.43263147179</v>
       </c>
       <c r="P80" s="42">
-        <v>1807.726877952</v>
+        <v>1269.3526019230001</v>
       </c>
       <c r="Q80" s="42">
-        <v>1798.1444380915</v>
+        <v>1260.4119493035</v>
       </c>
       <c r="R80" s="42">
-        <v>1569.1697123695001</v>
+        <v>1125.9292235815001</v>
       </c>
       <c r="S80" s="42">
-        <v>228.946114051</v>
+        <v>134.482841622</v>
       </c>
       <c r="T80" s="42">
-        <v>2.8586964029999998E-2</v>
+        <v>0</v>
       </c>
       <c r="U80" s="41">
-        <v>9.5827503718239999</v>
+        <v>8.9404486771540004</v>
       </c>
       <c r="V80" s="41">
-        <v>8.6963699999999999</v>
+        <v>89.481530000000006</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" s="33"/>
       <c r="B81" s="27" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C81" s="35">
         <v>71351.936181434998</v>
@@ -6666,73 +6763,73 @@
     <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" s="33"/>
       <c r="B82" s="27" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C82" s="35">
-        <v>16937.476266294001</v>
+        <v>22543.636266294001</v>
       </c>
       <c r="D82" s="36">
-        <v>4304.6488997790002</v>
+        <v>5433.7088997789997</v>
       </c>
       <c r="E82" s="36">
-        <v>3424.4673704103998</v>
+        <v>4267.0493704104001</v>
       </c>
       <c r="F82" s="36">
-        <v>10137.773274685</v>
+        <v>13854.823274685001</v>
       </c>
       <c r="G82" s="36">
-        <v>2988.3260684994002</v>
+        <v>3196.0802341834001</v>
       </c>
       <c r="H82" s="35">
-        <v>689.50542063060902</v>
+        <v>717.07485278160902</v>
       </c>
       <c r="I82" s="36">
-        <v>390.71390349772702</v>
+        <v>388.97251113472697</v>
       </c>
       <c r="J82" s="36">
-        <v>6.5624863201149903</v>
+        <v>8.0084724491149899</v>
       </c>
       <c r="K82" s="36">
-        <v>16.180998842267002</v>
+        <v>18.486433194267001</v>
       </c>
       <c r="L82" s="36">
-        <v>340.175236850673</v>
+        <v>352.08527442167298</v>
       </c>
       <c r="M82" s="36">
-        <v>1545.1865112153</v>
+        <v>1711.4515731073</v>
       </c>
       <c r="N82" s="36">
-        <v>984.74496794516995</v>
+        <v>1145.60686941517</v>
       </c>
       <c r="O82" s="36">
-        <v>560.44181754531405</v>
+        <v>565.84556244331395</v>
       </c>
       <c r="P82" s="36">
-        <v>643.06037625989302</v>
+        <v>1181.43465228889</v>
       </c>
       <c r="Q82" s="36">
-        <v>427.86142971884999</v>
+        <v>965.59391850684995</v>
       </c>
       <c r="R82" s="36">
-        <v>216.20262772346001</v>
+        <v>659.44311651145995</v>
       </c>
       <c r="S82" s="36">
-        <v>60.939059717901003</v>
+        <v>155.40233214690099</v>
       </c>
       <c r="T82" s="36">
-        <v>150.71914379616999</v>
+        <v>150.7477307602</v>
       </c>
       <c r="U82" s="35">
-        <v>215.200226955273</v>
+        <v>215.84252864994301</v>
       </c>
       <c r="V82" s="35">
-        <v>-660.01481000000001</v>
+        <v>-740.79997000000003</v>
       </c>
     </row>
     <row r="83" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="33"/>
       <c r="B83" s="37" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C83" s="38">
         <v>1057881.76211539</v>
@@ -6798,28 +6895,28 @@
     <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84" s="33"/>
       <c r="B84" s="40" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C84" s="41">
-        <v>4215.3183032409997</v>
+        <v>4703.8343032410003</v>
       </c>
       <c r="D84" s="42">
-        <v>880.68861345200003</v>
+        <v>1005.1006134519999</v>
       </c>
       <c r="E84" s="42">
-        <v>1326.737071042</v>
+        <v>1466.2130710419999</v>
       </c>
       <c r="F84" s="42">
-        <v>2533.0990488880002</v>
+        <v>2786.4680488879999</v>
       </c>
       <c r="G84" s="42">
-        <v>1345.582341239</v>
+        <v>1468.1193412390001</v>
       </c>
       <c r="H84" s="41">
-        <v>357.72155259760001</v>
+        <v>400.40269218359998</v>
       </c>
       <c r="I84" s="42">
-        <v>194.90409949470001</v>
+        <v>223.6992675827</v>
       </c>
       <c r="J84" s="42">
         <v>1.44955535553499</v>
@@ -6828,22 +6925,22 @@
         <v>2.233912554142</v>
       </c>
       <c r="L84" s="42">
-        <v>120.42897957908001</v>
+        <v>142.47188947708</v>
       </c>
       <c r="M84" s="42">
-        <v>668.84399559600001</v>
+        <v>697.86165889300003</v>
       </c>
       <c r="N84" s="42">
-        <v>439.86205198750002</v>
+        <v>453.09355864849999</v>
       </c>
       <c r="O84" s="42">
-        <v>228.9816656527</v>
+        <v>244.76782228970001</v>
       </c>
       <c r="P84" s="42">
-        <v>188.07398179465301</v>
+        <v>205.01320516465299</v>
       </c>
       <c r="Q84" s="42">
-        <v>117.87466706724</v>
+        <v>118.12645624264</v>
       </c>
       <c r="R84" s="42">
         <v>97.8744717589</v>
@@ -6852,19 +6949,19 @@
         <v>11.055823556321</v>
       </c>
       <c r="T84" s="42">
-        <v>8.9443717526699995</v>
+        <v>9.1961609280700003</v>
       </c>
       <c r="U84" s="41">
-        <v>70.199314728367</v>
+        <v>86.886748923366994</v>
       </c>
       <c r="V84" s="41">
-        <v>-264.65514999999999</v>
+        <v>-293.39632999999998</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85" s="33"/>
       <c r="B85" s="27" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C85" s="35">
         <v>712.37</v>
@@ -6930,28 +7027,28 @@
     <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86" s="33"/>
       <c r="B86" s="27" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C86" s="35">
-        <v>14619.520241389</v>
+        <v>14131.004241389001</v>
       </c>
       <c r="D86" s="36">
-        <v>4747.277246656</v>
+        <v>4622.8652466559997</v>
       </c>
       <c r="E86" s="36">
-        <v>3697.1411294349</v>
+        <v>3557.6651294348999</v>
       </c>
       <c r="F86" s="36">
-        <v>9135.3524911549994</v>
+        <v>8881.9834911550006</v>
       </c>
       <c r="G86" s="36">
-        <v>2084.2089372188998</v>
+        <v>1961.6719372189</v>
       </c>
       <c r="H86" s="35">
-        <v>339.93655558241102</v>
+        <v>297.25541599641099</v>
       </c>
       <c r="I86" s="36">
-        <v>296.95239277793002</v>
+        <v>268.15722468992999</v>
       </c>
       <c r="J86" s="36">
         <v>6.7142895204800004</v>
@@ -6960,22 +7057,22 @@
         <v>19.711612136334999</v>
       </c>
       <c r="L86" s="36">
-        <v>257.36109682962302</v>
+        <v>235.31818693162299</v>
       </c>
       <c r="M86" s="36">
-        <v>1163.5320283994999</v>
+        <v>1134.5143651025001</v>
       </c>
       <c r="N86" s="36">
-        <v>789.08780760529999</v>
+        <v>775.85630094429996</v>
       </c>
       <c r="O86" s="36">
-        <v>374.44545784288999</v>
+        <v>358.65930120589002</v>
       </c>
       <c r="P86" s="36">
-        <v>1612.93101457424</v>
+        <v>1595.9917912042399</v>
       </c>
       <c r="Q86" s="36">
-        <v>1506.82137131221</v>
+        <v>1506.5695821368099</v>
       </c>
       <c r="R86" s="36">
         <v>1253.42177612096</v>
@@ -6984,67 +7081,67 @@
         <v>250.08842932357999</v>
       </c>
       <c r="T86" s="36">
-        <v>3.3110334726300001</v>
+        <v>3.0592442972299998</v>
       </c>
       <c r="U86" s="35">
-        <v>106.11068531843</v>
+        <v>89.423251123430006</v>
       </c>
       <c r="V86" s="35">
-        <v>-563.44551999999999</v>
+        <v>-534.70434</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" s="33"/>
       <c r="B87" s="27" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C87" s="35">
-        <v>72161.434697321994</v>
+        <v>72500.704035782997</v>
       </c>
       <c r="D87" s="36">
-        <v>20985.4857678109</v>
+        <v>21161.930953413899</v>
       </c>
       <c r="E87" s="36">
-        <v>11212.7971685705</v>
+        <v>11224.0696435315</v>
       </c>
       <c r="F87" s="36">
-        <v>42338.031428162001</v>
+        <v>42563.084514296999</v>
       </c>
       <c r="G87" s="36">
-        <v>7272.3013842655</v>
+        <v>7283.7916728065002</v>
       </c>
       <c r="H87" s="35">
-        <v>416.28532825011501</v>
+        <v>416.12414756353502</v>
       </c>
       <c r="I87" s="36">
-        <v>396.33328366237998</v>
+        <v>396.44864094337998</v>
       </c>
       <c r="J87" s="36">
-        <v>193.78847177377</v>
+        <v>193.37996785337</v>
       </c>
       <c r="K87" s="36">
-        <v>68.944036320560002</v>
+        <v>68.693550158779999</v>
       </c>
       <c r="L87" s="36">
-        <v>450.99925922999603</v>
+        <v>450.66927459409601</v>
       </c>
       <c r="M87" s="36">
-        <v>5745.9571237422997</v>
+        <v>5758.4822104073</v>
       </c>
       <c r="N87" s="36">
-        <v>4186.6450864987</v>
+        <v>4196.5627472086999</v>
       </c>
       <c r="O87" s="36">
-        <v>1559.3145450172799</v>
+        <v>1561.92197097088</v>
       </c>
       <c r="P87" s="36">
-        <v>3940.4906411685502</v>
+        <v>3940.2728275888398</v>
       </c>
       <c r="Q87" s="36">
-        <v>3554.0472629159399</v>
+        <v>3553.82944933624</v>
       </c>
       <c r="R87" s="36">
-        <v>2181.0711493753302</v>
+        <v>2180.8533357956298</v>
       </c>
       <c r="S87" s="36">
         <v>637.80800059006197</v>
@@ -7056,13 +7153,13 @@
         <v>386.44995232319599</v>
       </c>
       <c r="V87" s="35">
-        <v>-1493.77827</v>
+        <v>-1567.2792099999999</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88" s="33"/>
       <c r="B88" s="27" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C88" s="35">
         <v>4333.3010000000004</v>
@@ -7128,139 +7225,139 @@
     <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89" s="33"/>
       <c r="B89" s="27" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C89" s="35">
-        <v>348490.682599505</v>
+        <v>345303.14526104397</v>
       </c>
       <c r="D89" s="36">
-        <v>90602.929215623895</v>
+        <v>89388.407030021001</v>
       </c>
       <c r="E89" s="36">
-        <v>25259.065751615301</v>
+        <v>25045.422714065899</v>
       </c>
       <c r="F89" s="36">
-        <v>233017.82373890199</v>
+        <v>231013.809181071</v>
       </c>
       <c r="G89" s="36">
-        <v>14834.2383021883</v>
+        <v>14641.5557902769</v>
       </c>
       <c r="H89" s="35">
-        <v>1083.19263536019</v>
+        <v>1071.9831806437701</v>
       </c>
       <c r="I89" s="36">
-        <v>2314.3317594096702</v>
+        <v>2290.9987350871202</v>
       </c>
       <c r="J89" s="36">
-        <v>247.30595299422799</v>
+        <v>247.47312009362801</v>
       </c>
       <c r="K89" s="36">
-        <v>51.897045274903697</v>
+        <v>51.8130208700927</v>
       </c>
       <c r="L89" s="36">
-        <v>1615.0942685197699</v>
+        <v>1572.6010562896699</v>
       </c>
       <c r="M89" s="36">
-        <v>9522.4102562807202</v>
+        <v>9406.6803204047192</v>
       </c>
       <c r="N89" s="36">
-        <v>7159.0461681735096</v>
+        <v>7081.1022266285099</v>
       </c>
       <c r="O89" s="36">
-        <v>2363.3611244643698</v>
+        <v>2325.57513013477</v>
       </c>
       <c r="P89" s="36">
-        <v>10424.8311472066</v>
+        <v>10403.8708365394</v>
       </c>
       <c r="Q89" s="36">
-        <v>9133.4439235219197</v>
+        <v>9113.1346338016301</v>
       </c>
       <c r="R89" s="36">
-        <v>5959.7555249444504</v>
+        <v>5946.6640474081496</v>
       </c>
       <c r="S89" s="36">
-        <v>1727.1234225537301</v>
+        <v>1720.4690858717299</v>
       </c>
       <c r="T89" s="36">
-        <v>1446.57883035951</v>
+        <v>1446.0153548579101</v>
       </c>
       <c r="U89" s="35">
-        <v>1291.3942110733601</v>
+        <v>1290.7431901267601</v>
       </c>
       <c r="V89" s="35">
-        <v>-175.53863999999999</v>
+        <v>70.544920000000502</v>
       </c>
     </row>
     <row r="90" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="33"/>
       <c r="B90" s="37" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C90" s="38">
-        <v>701321.81099999999</v>
+        <v>704170.07900000003</v>
       </c>
       <c r="D90" s="39">
-        <v>243912.124753618</v>
+        <v>244950.20175361799</v>
       </c>
       <c r="E90" s="39">
-        <v>23782.883032616501</v>
+        <v>23985.2535952049</v>
       </c>
       <c r="F90" s="39">
-        <v>438097.25388990197</v>
+        <v>439876.21536159801</v>
       </c>
       <c r="G90" s="39">
-        <v>10786.6521812144</v>
+        <v>10967.844404584799</v>
       </c>
       <c r="H90" s="38">
-        <v>579.93368767260404</v>
+        <v>591.30432307560397</v>
       </c>
       <c r="I90" s="39">
-        <v>4360.5448128124399</v>
+        <v>4383.76247985398</v>
       </c>
       <c r="J90" s="39">
-        <v>102.74963512443</v>
+        <v>102.99097194543</v>
       </c>
       <c r="K90" s="39">
-        <v>71.142788678664303</v>
+        <v>71.477299245255296</v>
       </c>
       <c r="L90" s="39">
-        <v>1357.3974429319301</v>
+        <v>1400.2206397979301</v>
       </c>
       <c r="M90" s="39">
-        <v>4314.8891358361698</v>
+        <v>4418.0939850471696</v>
       </c>
       <c r="N90" s="39">
-        <v>2445.5386402671602</v>
+        <v>2513.56492110216</v>
       </c>
       <c r="O90" s="39">
-        <v>1869.3430947960301</v>
+        <v>1904.52166317203</v>
       </c>
       <c r="P90" s="39">
-        <v>12996.3647683976</v>
+        <v>13017.5428926445</v>
       </c>
       <c r="Q90" s="39">
-        <v>11776.505941097301</v>
+        <v>11797.0330443973</v>
       </c>
       <c r="R90" s="39">
-        <v>9767.8360782743603</v>
+        <v>9781.1453693903604</v>
       </c>
       <c r="S90" s="39">
-        <v>855.16153335368404</v>
+        <v>861.81587003568404</v>
       </c>
       <c r="T90" s="39">
-        <v>1153.5143787688201</v>
+        <v>1154.0778542704199</v>
       </c>
       <c r="U90" s="38">
-        <v>1219.8523831334501</v>
+        <v>1220.5034040800499</v>
       </c>
       <c r="V90" s="38">
-        <v>-1713.46262</v>
+        <v>-1886.0452399999999</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91" s="33"/>
       <c r="B91" s="40" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C91" s="41">
         <v>6204.5588591730002</v>
@@ -7326,7 +7423,7 @@
     <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92" s="33"/>
       <c r="B92" s="27" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C92" s="35">
         <v>4973.5070175649998</v>
@@ -7392,7 +7489,7 @@
     <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93" s="33"/>
       <c r="B93" s="27" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C93" s="35">
         <v>147.410998216</v>
@@ -7458,58 +7555,58 @@
     <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94" s="33"/>
       <c r="B94" s="27" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C94" s="35">
-        <v>6708.9475295789998</v>
+        <v>6376.5445295789996</v>
       </c>
       <c r="D94" s="36">
-        <v>2154.8704727827999</v>
+        <v>2003.8704727828001</v>
       </c>
       <c r="E94" s="36">
-        <v>364.22882502822</v>
+        <v>348.71903172821999</v>
       </c>
       <c r="F94" s="36">
-        <v>3797.3098398830998</v>
+        <v>3653.8778398831</v>
       </c>
       <c r="G94" s="36">
-        <v>268.18056577941201</v>
+        <v>267.36218259171198</v>
       </c>
       <c r="H94" s="35">
-        <v>33.9321815888757</v>
+        <v>33.931455074776999</v>
       </c>
       <c r="I94" s="36">
-        <v>58.835111159543999</v>
+        <v>58.833820071055001</v>
       </c>
       <c r="J94" s="36">
         <v>26.843695305038</v>
       </c>
       <c r="K94" s="36">
-        <v>3.4073538562705998</v>
+        <v>3.2292445086705999</v>
       </c>
       <c r="L94" s="36">
-        <v>27.1116765076932</v>
+        <v>27.092811274873199</v>
       </c>
       <c r="M94" s="36">
-        <v>118.050547358522</v>
+        <v>117.431156353822</v>
       </c>
       <c r="N94" s="36">
-        <v>86.786515174261993</v>
+        <v>86.618361245062005</v>
       </c>
       <c r="O94" s="36">
-        <v>31.264032184771999</v>
+        <v>30.812795109271999</v>
       </c>
       <c r="P94" s="36">
-        <v>96.048959051500006</v>
+        <v>81.357548939500006</v>
       </c>
       <c r="Q94" s="36">
-        <v>66.987746971500002</v>
+        <v>52.296336859500002</v>
       </c>
       <c r="R94" s="36">
-        <v>35.1027146343</v>
+        <v>28.521173023300001</v>
       </c>
       <c r="S94" s="36">
-        <v>31.885032338197</v>
+        <v>23.775163836196999</v>
       </c>
       <c r="T94" s="36">
         <v>0</v>
@@ -7518,13 +7615,13 @@
         <v>29.061212083000001</v>
       </c>
       <c r="V94" s="35">
-        <v>755.00930000000005</v>
+        <v>732.54774999999995</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95" s="33"/>
       <c r="B95" s="27" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C95" s="35">
         <v>3788.7912620920001</v>
@@ -7590,7 +7687,7 @@
     <row r="96" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="33"/>
       <c r="B96" s="37" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C96" s="38">
         <v>5504.7024132619999</v>
@@ -7656,55 +7753,55 @@
     <row r="97" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A97" s="33"/>
       <c r="B97" s="40" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="C97" s="41">
-        <v>13880.889361944</v>
+        <v>14117.453361944001</v>
       </c>
       <c r="D97" s="42">
-        <v>3676.0910545010001</v>
+        <v>3716.7579747670002</v>
       </c>
       <c r="E97" s="42">
-        <v>3810.8117647210001</v>
+        <v>3863.1401971250002</v>
       </c>
       <c r="F97" s="42">
-        <v>8720.5913617909991</v>
+        <v>8869.6453617909992</v>
       </c>
       <c r="G97" s="42">
-        <v>2533.4853531980002</v>
+        <v>2585.6879233109998</v>
       </c>
       <c r="H97" s="41">
-        <v>604.24137383431105</v>
+        <v>608.90739458731105</v>
       </c>
       <c r="I97" s="42">
-        <v>435.62372257819999</v>
+        <v>441.25794514619997</v>
       </c>
       <c r="J97" s="42">
         <v>5.3365845131449898</v>
       </c>
       <c r="K97" s="42">
-        <v>10.674230135907001</v>
+        <v>10.818661311207</v>
       </c>
       <c r="L97" s="42">
-        <v>247.23264729802301</v>
+        <v>259.13060168802298</v>
       </c>
       <c r="M97" s="42">
-        <v>1230.3771055495999</v>
+        <v>1260.2370467766</v>
       </c>
       <c r="N97" s="42">
-        <v>807.4084292842</v>
+        <v>835.28660175719995</v>
       </c>
       <c r="O97" s="42">
-        <v>422.96884403729001</v>
+        <v>424.95061279128998</v>
       </c>
       <c r="P97" s="42">
-        <v>1484.2442612958801</v>
+        <v>1484.37012358728</v>
       </c>
       <c r="Q97" s="42">
-        <v>1378.7839630306401</v>
+        <v>1378.90982532204</v>
       </c>
       <c r="R97" s="42">
-        <v>1221.3866901123399</v>
+        <v>1221.5125524037401</v>
       </c>
       <c r="S97" s="42">
         <v>145.16245690972099</v>
@@ -7716,64 +7813,64 @@
         <v>105.460812718227</v>
       </c>
       <c r="V97" s="41">
-        <v>-398.0899</v>
+        <v>-403.57526000000001</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="33"/>
       <c r="B98" s="37" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C98" s="38">
-        <v>26185.279017565001</v>
+        <v>26786.209017565001</v>
       </c>
       <c r="D98" s="39">
-        <v>6239.7758076609998</v>
+        <v>6437.5048076610001</v>
       </c>
       <c r="E98" s="39">
-        <v>6862.3708881160001</v>
+        <v>7039.5917948890001</v>
       </c>
       <c r="F98" s="39">
-        <v>13717.280271819</v>
+        <v>13965.565393485</v>
       </c>
       <c r="G98" s="39">
-        <v>2089.5647260430001</v>
+        <v>2126.1277575109998</v>
       </c>
       <c r="H98" s="38">
-        <v>120.46261456496001</v>
+        <v>120.56119120423</v>
       </c>
       <c r="I98" s="39">
-        <v>275.30466675209999</v>
+        <v>284.61632754599998</v>
       </c>
       <c r="J98" s="39">
         <v>22.488540609160001</v>
       </c>
       <c r="K98" s="39">
-        <v>14.222573549812999</v>
+        <v>14.240174828002999</v>
       </c>
       <c r="L98" s="39">
-        <v>220.08407854199999</v>
+        <v>221.3108536631</v>
       </c>
       <c r="M98" s="39">
-        <v>1437.0024115419999</v>
+        <v>1462.9108291780001</v>
       </c>
       <c r="N98" s="39">
-        <v>939.90917545800005</v>
+        <v>943.865773838</v>
       </c>
       <c r="O98" s="39">
-        <v>497.09417080535002</v>
+        <v>519.04599006135004</v>
       </c>
       <c r="P98" s="39">
-        <v>4827.8495753007801</v>
+        <v>4968.5075583657799</v>
       </c>
       <c r="Q98" s="39">
-        <v>4745.85954557278</v>
+        <v>4886.5175286377798</v>
       </c>
       <c r="R98" s="39">
-        <v>4353.3695489328202</v>
+        <v>4375.8112277248201</v>
       </c>
       <c r="S98" s="39">
-        <v>385.24037059506003</v>
+        <v>503.45637059505998</v>
       </c>
       <c r="T98" s="39">
         <v>7.2414399524839999</v>
@@ -7782,7 +7879,7 @@
         <v>81.997158171329005</v>
       </c>
       <c r="V98" s="38">
-        <v>-4.6594300000000004</v>
+        <v>11.060739999999999</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.35">
@@ -7811,7 +7908,7 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C100" s="45"/>
       <c r="D100" s="45"/>
@@ -7836,7 +7933,7 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C101" s="45"/>
       <c r="D101" s="45"/>
@@ -7861,7 +7958,7 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="C102" s="45"/>
       <c r="D102" s="45"/>
@@ -7886,7 +7983,7 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C103" s="45"/>
       <c r="D103" s="45"/>
@@ -7980,7 +8077,7 @@
     </row>
     <row r="107" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="46" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
@@ -8028,7 +8125,7 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C109" s="45"/>
       <c r="D109" s="45"/>
@@ -8053,7 +8150,7 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C110" s="45"/>
       <c r="D110" s="45"/>
@@ -8101,7 +8198,7 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C112" s="45"/>
       <c r="D112" s="45"/>
@@ -8126,7 +8223,7 @@
     </row>
     <row r="113" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="C113" s="45"/>
       <c r="D113" s="45"/>
@@ -8174,11 +8271,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{7DE1EF6D-54F8-4734-9046-90E9AB240040}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{34CBC18B-2B70-47C2-9C48-8BE42110283E}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{5BC1FFB1-0448-4C59-86A9-CE4D6E127EF0}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{434A35C0-6B98-42D5-880A-563C284D1C63}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{5328C66F-CC3F-4128-829E-61915698F1F2}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{BA434C0A-CBB8-43F8-B611-8E032935E1D0}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{FCB8DA44-D539-4A28-8866-06BB9C13EF8C}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{AE26B72B-0035-46C6-B4B6-58C5292E9DC5}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{DA17D0CE-34AC-4298-B133-D6829B1E4E2D}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{25CECB5B-16A8-402E-9EA9-1F837439EAD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab29.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63B68AD4-229B-442B-BAD8-90284823E7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70CA8E25-78CB-4934-A329-B990A0995A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{05152B85-2E8C-40AD-BD0C-D3B5588BC4A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9EB62A87-774E-4E90-A924-002C4E199F5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab29" sheetId="1" r:id="rId1"/>
@@ -1324,7 +1324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70378794-50A9-48B7-8BD9-81290C46CAA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF02CCB-7675-4496-98A3-211EEB42007F}">
   <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -8271,11 +8271,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{BA434C0A-CBB8-43F8-B611-8E032935E1D0}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{FCB8DA44-D539-4A28-8866-06BB9C13EF8C}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{AE26B72B-0035-46C6-B4B6-58C5292E9DC5}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{DA17D0CE-34AC-4298-B133-D6829B1E4E2D}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{25CECB5B-16A8-402E-9EA9-1F837439EAD0}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{93B5E82E-B435-478A-9628-282FC4486065}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{2FDA5A20-3D39-4A7A-A274-50F34F35B948}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{6F2A6588-A7D9-4779-B468-4029FA5F9E11}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{69F2CB61-513D-4ED8-9E86-0D231B21E472}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{010B12A6-5C7B-45C9-BC27-666B721DB217}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab29.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70CA8E25-78CB-4934-A329-B990A0995A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C394B5B6-D161-4656-BF0D-6FBADC6B23D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9EB62A87-774E-4E90-A924-002C4E199F5C}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{0144F0B0-8262-4254-B772-855E2FE9A756}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab29" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="183">
   <si>
     <t>Tableau 29 : Richesse nationale</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
+  </si>
+  <si>
+    <t>Source : Ensemble de données sur l'Évolution des richesses des nations, Banque mondiale 2021</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
@@ -1324,7 +1327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF02CCB-7675-4496-98A3-211EEB42007F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E5A36E-B261-4AE3-B42D-670CA02984DB}">
   <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -8007,8 +8010,8 @@
       <c r="V103" s="45"/>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="e">
-        <v>#N/A</v>
+      <c r="A104" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="C104" s="45"/>
       <c r="D104" s="45"/>
@@ -8077,7 +8080,7 @@
     </row>
     <row r="107" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
@@ -8125,7 +8128,7 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C109" s="45"/>
       <c r="D109" s="45"/>
@@ -8150,7 +8153,7 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C110" s="45"/>
       <c r="D110" s="45"/>
@@ -8198,7 +8201,7 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C112" s="45"/>
       <c r="D112" s="45"/>
@@ -8223,7 +8226,7 @@
     </row>
     <row r="113" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C113" s="45"/>
       <c r="D113" s="45"/>
@@ -8271,11 +8274,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{93B5E82E-B435-478A-9628-282FC4486065}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{2FDA5A20-3D39-4A7A-A274-50F34F35B948}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{6F2A6588-A7D9-4779-B468-4029FA5F9E11}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{69F2CB61-513D-4ED8-9E86-0D231B21E472}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{010B12A6-5C7B-45C9-BC27-666B721DB217}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{77F26C01-9B01-4B80-9B2F-939513632868}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E7FFFB5D-B361-410A-B3B4-7EC8F8CA10A1}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{C4FA48BF-0952-42F1-BE19-CA04C195EAD4}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{3D8F90A7-16A0-4F05-816E-CC424F57607F}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{6C8A71A9-9F29-4D6F-943B-D45CB43E61A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab29.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C394B5B6-D161-4656-BF0D-6FBADC6B23D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20DA39EC-1488-49C9-8F82-6DA911FCAC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{0144F0B0-8262-4254-B772-855E2FE9A756}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{BC6F1867-924D-4CB0-9AF1-32CF5B750C9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab29" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="184">
   <si>
     <t>Tableau 29 : Richesse nationale</t>
   </si>
@@ -575,16 +575,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E5A36E-B261-4AE3-B42D-670CA02984DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36689207-3484-416B-8FD4-868FFC6EC20E}">
   <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -8128,7 +8131,7 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C109" s="45"/>
       <c r="D109" s="45"/>
@@ -8153,7 +8156,7 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C110" s="45"/>
       <c r="D110" s="45"/>
@@ -8177,7 +8180,9 @@
       <c r="V110" s="45"/>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="C111" s="45"/>
       <c r="D111" s="45"/>
       <c r="E111" s="45"/>
@@ -8201,7 +8206,7 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C112" s="45"/>
       <c r="D112" s="45"/>
@@ -8226,7 +8231,7 @@
     </row>
     <row r="113" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C113" s="45"/>
       <c r="D113" s="45"/>
@@ -8274,13 +8279,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{77F26C01-9B01-4B80-9B2F-939513632868}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{E7FFFB5D-B361-410A-B3B4-7EC8F8CA10A1}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{C4FA48BF-0952-42F1-BE19-CA04C195EAD4}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{3D8F90A7-16A0-4F05-816E-CC424F57607F}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{6C8A71A9-9F29-4D6F-943B-D45CB43E61A1}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{FBD2864D-3FEA-4E60-8763-4D4CDEE67A9E}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{4CA4B9B3-0C7C-4C76-9CA2-B00F7C370954}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{6480DAAD-5528-4CC0-8EA5-8256E16EE507}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{554C414B-4E7E-457F-B601-0FD32C6D0CE3}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{549B23B4-6595-4FBE-8F98-BF3222CAB6A6}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{3F5B1C9E-627A-4CCB-9AFB-BACB758C210D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId2"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab29.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab29.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20DA39EC-1488-49C9-8F82-6DA911FCAC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D2C63A-3BF7-4F9D-A6E7-1DD46723328B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{BC6F1867-924D-4CB0-9AF1-32CF5B750C9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{8383A682-D465-4B74-88E5-467033421DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab29" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab29'!$A$1:$E$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1330,20 +1330,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36689207-3484-416B-8FD4-868FFC6EC20E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B580454-579E-4D0D-98AC-96612E6B81F8}">
   <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1368,7 +1368,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>-32.826430000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>5.8702100000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>28</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>0.81437000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>-0.69033999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>-2.4641899999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>34</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>-52.752400000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>36</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>-2.2340300000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>38</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>38.648479999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>-28.74118</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>-13.23419</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
         <v>44</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>-87.609700000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>46</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>-2.0458599999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>-10.2058</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>-1.5465500000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>52</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>-6.5451499999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>54</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>-25.06006</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>56</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>-19.92587</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>58</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>-14.56836</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>60</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>-12.656219999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>62</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>-0.36066999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>44</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>-92.914540000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>65</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>-6.4409999999999995E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>67</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>-2.0976900000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>69</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>-1.53352</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>71</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>-32.242049999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>73</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>-20.00534</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>75</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>-7.1256199999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>77</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>21.901260000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>79</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>-5.1870799999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>81</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>-1.3261099999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>83</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>85</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>-1.74702</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>87</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>-85.034480000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>89</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>-30.346990000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>91</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>-17.37473</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>44</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>-182.18378000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>94</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>55.113579999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>96</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>-168.119</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>98</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>141.14699999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>100</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>-10.356339999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>102</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>-77.822590000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>104</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>-56.45599</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18" t="s">
         <v>44</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>-116.49334</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>107</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>-5.48536</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>109</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>-6.5879799999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>111</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>-3.0194700000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>113</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>-12.31808</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>115</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>-1.0525899999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>117</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>-27.07526</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>119</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>-0.98758000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>121</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>-0.38773999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>123</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>-0.57669000000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>125</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>-7.5258200000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>127</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>-9.2858699999999992</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>129</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>-82.532179999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>131</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>-12.556100000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>133</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>-1.6240300000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>135</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>-1.10233</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18"/>
       <c r="B61" s="19" t="s">
         <v>137</v>
@@ -5446,7 +5446,7 @@
         <v>-172.11707999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26"/>
       <c r="B62" s="27" t="s">
         <v>138</v>
@@ -5512,7 +5512,7 @@
         <v>-651.31844000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26"/>
       <c r="B63" s="30" t="s">
         <v>139</v>
@@ -5578,7 +5578,7 @@
         <v>-3279.1544199999998</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="33"/>
       <c r="B64" s="34" t="s">
         <v>140</v>
@@ -5644,7 +5644,7 @@
         <v>-1626.68688</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="33"/>
       <c r="B65" s="27" t="s">
         <v>141</v>
@@ -5710,7 +5710,7 @@
         <v>476.98417999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="33"/>
       <c r="B66" s="37" t="s">
         <v>142</v>
@@ -5776,7 +5776,7 @@
         <v>-3930.4728599999999</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="33"/>
       <c r="B67" s="40" t="s">
         <v>143</v>
@@ -5842,7 +5842,7 @@
         <v>-299.11468000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="33"/>
       <c r="B68" s="27" t="s">
         <v>144</v>
@@ -5908,7 +5908,7 @@
         <v>-436.94963999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="33"/>
       <c r="B69" s="27" t="s">
         <v>145</v>
@@ -5974,7 +5974,7 @@
         <v>-96.632890000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="33"/>
       <c r="B70" s="27" t="s">
         <v>146</v>
@@ -6040,7 +6040,7 @@
         <v>-130.92805000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="33"/>
       <c r="B71" s="27" t="s">
         <v>147</v>
@@ -6106,7 +6106,7 @@
         <v>-172.11707999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="33"/>
       <c r="B72" s="27" t="s">
         <v>148</v>
@@ -6172,7 +6172,7 @@
         <v>-160.03483</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="33"/>
       <c r="B73" s="27" t="s">
         <v>149</v>
@@ -6238,7 +6238,7 @@
         <v>-124.49744</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="33"/>
       <c r="B74" s="27" t="s">
         <v>149</v>
@@ -6304,7 +6304,7 @@
         <v>51.625660000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="33"/>
       <c r="B75" s="37" t="s">
         <v>150</v>
@@ -6370,7 +6370,7 @@
         <v>-89.346710000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="33"/>
       <c r="B76" s="40" t="s">
         <v>151</v>
@@ -6436,7 +6436,7 @@
         <v>278.52048000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="33"/>
       <c r="B77" s="27" t="s">
         <v>152</v>
@@ -6502,7 +6502,7 @@
         <v>-880.19777999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="33"/>
       <c r="B78" s="27" t="s">
         <v>152</v>
@@ -6568,7 +6568,7 @@
         <v>-432.13076999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="33"/>
       <c r="B79" s="37" t="s">
         <v>153</v>
@@ -6634,7 +6634,7 @@
         <v>-6746.9539500000001</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="33"/>
       <c r="B80" s="40" t="s">
         <v>154</v>
@@ -6700,7 +6700,7 @@
         <v>89.481530000000006</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="33"/>
       <c r="B81" s="27" t="s">
         <v>155</v>
@@ -6766,7 +6766,7 @@
         <v>3574.48326</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="33"/>
       <c r="B82" s="27" t="s">
         <v>156</v>
@@ -6832,7 +6832,7 @@
         <v>-740.79997000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="33"/>
       <c r="B83" s="37" t="s">
         <v>157</v>
@@ -6898,7 +6898,7 @@
         <v>-6853.6376799999998</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="33"/>
       <c r="B84" s="40" t="s">
         <v>158</v>
@@ -6964,7 +6964,7 @@
         <v>-293.39632999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="33"/>
       <c r="B85" s="27" t="s">
         <v>159</v>
@@ -7030,7 +7030,7 @@
         <v>-0.95199999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="33"/>
       <c r="B86" s="27" t="s">
         <v>160</v>
@@ -7096,7 +7096,7 @@
         <v>-534.70434</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="33"/>
       <c r="B87" s="27" t="s">
         <v>161</v>
@@ -7162,7 +7162,7 @@
         <v>-1567.2792099999999</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="33"/>
       <c r="B88" s="27" t="s">
         <v>162</v>
@@ -7228,7 +7228,7 @@
         <v>178.10834</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="33"/>
       <c r="B89" s="27" t="s">
         <v>163</v>
@@ -7294,7 +7294,7 @@
         <v>70.544920000000502</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="33"/>
       <c r="B90" s="37" t="s">
         <v>164</v>
@@ -7360,7 +7360,7 @@
         <v>-1886.0452399999999</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="33"/>
       <c r="B91" s="40" t="s">
         <v>165</v>
@@ -7426,7 +7426,7 @@
         <v>-388.18065999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="33"/>
       <c r="B92" s="27" t="s">
         <v>166</v>
@@ -7492,7 +7492,7 @@
         <v>-96.364680000000007</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="33"/>
       <c r="B93" s="27" t="s">
         <v>167</v>
@@ -7558,7 +7558,7 @@
         <v>16.74286</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="33"/>
       <c r="B94" s="27" t="s">
         <v>168</v>
@@ -7624,7 +7624,7 @@
         <v>732.54774999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="33"/>
       <c r="B95" s="27" t="s">
         <v>169</v>
@@ -7690,7 +7690,7 @@
         <v>-128.53343000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="33"/>
       <c r="B96" s="37" t="s">
         <v>170</v>
@@ -7756,139 +7756,139 @@
         <v>-193.32218</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="33"/>
       <c r="B97" s="40" t="s">
         <v>171</v>
       </c>
       <c r="C97" s="41">
-        <v>14117.453361944001</v>
+        <v>12868.541997093</v>
       </c>
       <c r="D97" s="42">
-        <v>3716.7579747670002</v>
+        <v>3272.5021003460001</v>
       </c>
       <c r="E97" s="42">
-        <v>3863.1401971250002</v>
+        <v>3290.658625392</v>
       </c>
       <c r="F97" s="42">
-        <v>8869.6453617909992</v>
+        <v>8141.6481835340001</v>
       </c>
       <c r="G97" s="42">
-        <v>2585.6879233109998</v>
+        <v>2019.0304741949999</v>
       </c>
       <c r="H97" s="41">
-        <v>608.90739458731105</v>
+        <v>395.700717798911</v>
       </c>
       <c r="I97" s="42">
-        <v>441.25794514619997</v>
+        <v>304.22211245789998</v>
       </c>
       <c r="J97" s="42">
-        <v>5.3365845131449898</v>
+        <v>5.0475930165899996</v>
       </c>
       <c r="K97" s="42">
-        <v>10.818661311207</v>
+        <v>10.457351998115</v>
       </c>
       <c r="L97" s="42">
-        <v>259.13060168802298</v>
+        <v>233.34297219338299</v>
       </c>
       <c r="M97" s="42">
-        <v>1260.2370467766</v>
+        <v>1070.2603219179</v>
       </c>
       <c r="N97" s="42">
-        <v>835.28660175719995</v>
+        <v>717.83695006790003</v>
       </c>
       <c r="O97" s="42">
-        <v>424.95061279128998</v>
+        <v>352.4235396222</v>
       </c>
       <c r="P97" s="42">
-        <v>1484.37012358728</v>
+        <v>1271.6267689962399</v>
       </c>
       <c r="Q97" s="42">
-        <v>1378.90982532204</v>
+        <v>1201.9078213620401</v>
       </c>
       <c r="R97" s="42">
-        <v>1221.5125524037401</v>
+        <v>1057.4842536707399</v>
       </c>
       <c r="S97" s="42">
-        <v>145.16245690972099</v>
+        <v>132.1887516834</v>
       </c>
       <c r="T97" s="42">
         <v>12.23460569026</v>
       </c>
       <c r="U97" s="41">
-        <v>105.460812718227</v>
+        <v>69.719462086830006</v>
       </c>
       <c r="V97" s="41">
-        <v>-403.57526000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>-245.56838999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="33"/>
       <c r="B98" s="37" t="s">
         <v>172</v>
       </c>
       <c r="C98" s="38">
-        <v>26786.209017565001</v>
+        <v>22835.330017565</v>
       </c>
       <c r="D98" s="39">
-        <v>6437.5048076610001</v>
+        <v>5399.5377050799998</v>
       </c>
       <c r="E98" s="39">
-        <v>7039.5917948890001</v>
+        <v>4855.6874826869998</v>
       </c>
       <c r="F98" s="39">
-        <v>13965.565393485</v>
+        <v>13047.396396308</v>
       </c>
       <c r="G98" s="39">
-        <v>2126.1277575109998</v>
+        <v>1993.3771594150001</v>
       </c>
       <c r="H98" s="38">
-        <v>120.56119120423</v>
+        <v>119.17308086803</v>
       </c>
       <c r="I98" s="39">
-        <v>284.61632754599998</v>
+        <v>276.51773982840001</v>
       </c>
       <c r="J98" s="39">
-        <v>22.488540609160001</v>
+        <v>19.60991159316</v>
       </c>
       <c r="K98" s="39">
-        <v>14.240174828002999</v>
+        <v>13.3793097011</v>
       </c>
       <c r="L98" s="39">
-        <v>221.3108536631</v>
+        <v>218.68722159559999</v>
       </c>
       <c r="M98" s="39">
-        <v>1462.9108291780001</v>
+        <v>1346.010055345</v>
       </c>
       <c r="N98" s="39">
-        <v>943.865773838</v>
+        <v>880.31737984699998</v>
       </c>
       <c r="O98" s="39">
-        <v>519.04599006135004</v>
+        <v>465.69361021934998</v>
       </c>
       <c r="P98" s="39">
-        <v>4968.5075583657799</v>
+        <v>2917.3534394447802</v>
       </c>
       <c r="Q98" s="39">
-        <v>4886.5175286377798</v>
+        <v>2835.3682857867798</v>
       </c>
       <c r="R98" s="39">
-        <v>4375.8112277248201</v>
+        <v>2344.1877478162301</v>
       </c>
       <c r="S98" s="39">
-        <v>503.45637059505998</v>
+        <v>485.24530746568001</v>
       </c>
       <c r="T98" s="39">
-        <v>7.2414399524839999</v>
+        <v>5.9257335124840003</v>
       </c>
       <c r="U98" s="38">
-        <v>81.997158171329005</v>
+        <v>81.992282101800001</v>
       </c>
       <c r="V98" s="38">
-        <v>11.060739999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
+        <v>17.601220000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
       <c r="B99" s="44"/>
       <c r="C99" s="29"/>
@@ -7912,7 +7912,7 @@
       <c r="U99" s="29"/>
       <c r="V99" s="29"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>173</v>
       </c>
@@ -7937,7 +7937,7 @@
       <c r="U100" s="45"/>
       <c r="V100" s="45"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>174</v>
       </c>
@@ -7962,7 +7962,7 @@
       <c r="U101" s="45"/>
       <c r="V101" s="45"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>175</v>
       </c>
@@ -7987,7 +7987,7 @@
       <c r="U102" s="45"/>
       <c r="V102" s="45"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>176</v>
       </c>
@@ -8012,7 +8012,7 @@
       <c r="U103" s="45"/>
       <c r="V103" s="45"/>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>177</v>
       </c>
@@ -8037,7 +8037,7 @@
       <c r="U104" s="45"/>
       <c r="V104" s="45"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
       <c r="E105" s="45"/>
@@ -8059,7 +8059,7 @@
       <c r="U105" s="45"/>
       <c r="V105" s="45"/>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
@@ -8081,7 +8081,7 @@
       <c r="U106" s="45"/>
       <c r="V106" s="45"/>
     </row>
-    <row r="107" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="46" t="s">
         <v>178</v>
       </c>
@@ -8106,7 +8106,7 @@
       <c r="U107" s="45"/>
       <c r="V107" s="45"/>
     </row>
-    <row r="108" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="46"/>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
@@ -8129,7 +8129,7 @@
       <c r="U108" s="45"/>
       <c r="V108" s="45"/>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>181</v>
       </c>
@@ -8154,7 +8154,7 @@
       <c r="U109" s="45"/>
       <c r="V109" s="45"/>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>182</v>
       </c>
@@ -8179,7 +8179,7 @@
       <c r="U110" s="45"/>
       <c r="V110" s="45"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>183</v>
       </c>
@@ -8204,7 +8204,7 @@
       <c r="U111" s="45"/>
       <c r="V111" s="45"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>179</v>
       </c>
@@ -8229,7 +8229,7 @@
       <c r="U112" s="45"/>
       <c r="V112" s="45"/>
     </row>
-    <row r="113" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>180</v>
       </c>
@@ -8254,7 +8254,7 @@
       <c r="U113" s="45"/>
       <c r="V113" s="45"/>
     </row>
-    <row r="114" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="45"/>
       <c r="D114" s="45"/>
@@ -8279,12 +8279,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{FBD2864D-3FEA-4E60-8763-4D4CDEE67A9E}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{4CA4B9B3-0C7C-4C76-9CA2-B00F7C370954}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{6480DAAD-5528-4CC0-8EA5-8256E16EE507}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{554C414B-4E7E-457F-B601-0FD32C6D0CE3}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{549B23B4-6595-4FBE-8F98-BF3222CAB6A6}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{3F5B1C9E-627A-4CCB-9AFB-BACB758C210D}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{BDCC52EE-F25A-4D21-897B-1DBA167F6A2D}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{ACE8B7B6-B514-440F-B153-B820BB840DC9}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{9685061C-138F-46A2-95D4-9E6EE7D597DE}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{1D01188C-E0F5-4E83-9675-65CADA1AA3D6}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{CDB2DAD2-13A5-4B25-9A07-105CFE43F588}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{F6FAAA5C-0969-44F3-8553-3083CACA8EEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
